--- a/results/[4_flexible_energy_market]_#_fix_cost.xlsx
+++ b/results/[4_flexible_energy_market]_#_fix_cost.xlsx
@@ -520,7 +520,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>60.42677088866849</v>
+        <v>1037.265132737054</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -529,19 +529,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>154.0945373674233</v>
+        <v>28926.05393052954</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>80.95925712661834</v>
+        <v>8095.925712661834</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>345.7108634304001</v>
+        <v>16171.06685703679</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -550,16 +550,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>48492.22142001599</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>10595.37713982</v>
       </c>
       <c r="N2" t="n">
-        <v>56.37345936666455</v>
+        <v>7071.746316472206</v>
       </c>
       <c r="O2" t="n">
-        <v>82.08937871506363</v>
+        <v>6993.891045176661</v>
       </c>
     </row>
   </sheetData>
@@ -660,10 +660,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>45.29648671790184</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>161.2918256162735</v>
+        <v>4157.588990853394</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -672,19 +672,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>583.7465662421289</v>
+        <v>45991.90904307188</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>80.95925712661834</v>
+        <v>8095.925712661834</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>990.0506958757196</v>
+        <v>37079.12819938764</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -693,16 +693,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>54844.03303316472</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>17449.04999683176</v>
       </c>
       <c r="N2" t="n">
-        <v>151.5842097108635</v>
+        <v>9024.73482637065</v>
       </c>
       <c r="O2" t="n">
-        <v>163.1662854369969</v>
+        <v>9724.259001609127</v>
       </c>
     </row>
   </sheetData>
@@ -803,10 +803,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>104.3004757602837</v>
+        <v>2754.31755456332</v>
       </c>
       <c r="B2" t="n">
-        <v>317.4932866985711</v>
+        <v>6368.910634126893</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -815,19 +815,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>1229.937116414458</v>
+        <v>57457.45307013817</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>80.95925712661834</v>
+        <v>8095.925712661834</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1945.578676866415</v>
+        <v>52465.73681402855</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -836,16 +836,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>54844.03303316472</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>21912.87293902603</v>
       </c>
       <c r="N2" t="n">
-        <v>333.1202149549441</v>
+        <v>13034.31228651121</v>
       </c>
       <c r="O2" t="n">
-        <v>299.6526024711953</v>
+        <v>12860.17252493772</v>
       </c>
     </row>
   </sheetData>
@@ -946,10 +946,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>104.3004757602837</v>
+        <v>2754.31755456332</v>
       </c>
       <c r="B2" t="n">
-        <v>317.4932866985711</v>
+        <v>6368.910634126893</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -958,19 +958,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>1229.937116414458</v>
+        <v>57457.45307013817</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>80.95925712661834</v>
+        <v>8095.925712661834</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1945.578676866415</v>
+        <v>52465.73681402855</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -979,16 +979,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>54844.03303316472</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>21912.87293902603</v>
       </c>
       <c r="N2" t="n">
-        <v>333.1202149549441</v>
+        <v>13151.87171037628</v>
       </c>
       <c r="O2" t="n">
-        <v>309.0789362503767</v>
+        <v>12860.17252493772</v>
       </c>
     </row>
   </sheetData>
@@ -1089,10 +1089,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>130.1664139747333</v>
+        <v>5713.151062849596</v>
       </c>
       <c r="B2" t="n">
-        <v>317.4932866985711</v>
+        <v>6368.910634126893</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1101,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>1229.937116414458</v>
+        <v>57457.45307013817</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>80.95925712661834</v>
+        <v>8095.925712661834</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1945.578676866415</v>
+        <v>52465.73681402855</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1122,16 +1122,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>54844.03303316472</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>21912.87293902603</v>
       </c>
       <c r="N2" t="n">
-        <v>333.1202149549441</v>
+        <v>13601.0893110962</v>
       </c>
       <c r="O2" t="n">
-        <v>317.0118772417032</v>
+        <v>14937.13200870449</v>
       </c>
     </row>
   </sheetData>
@@ -1232,10 +1232,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>130.1664139747333</v>
+        <v>5713.151062849596</v>
       </c>
       <c r="B2" t="n">
-        <v>317.4932866985711</v>
+        <v>6368.910634126893</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1244,19 +1244,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>1229.937116414458</v>
+        <v>57457.45307013817</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>80.95925712661834</v>
+        <v>8095.925712661834</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1945.578676866415</v>
+        <v>52465.73681402855</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1265,16 +1265,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>54844.03303316472</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>21912.87293902603</v>
       </c>
       <c r="N2" t="n">
-        <v>333.1202149549441</v>
+        <v>13601.0893110962</v>
       </c>
       <c r="O2" t="n">
-        <v>317.0118772417032</v>
+        <v>14937.13200870449</v>
       </c>
     </row>
   </sheetData>

--- a/results/[4_flexible_energy_market]_#_fix_cost.xlsx
+++ b/results/[4_flexible_energy_market]_#_fix_cost.xlsx
@@ -517,10 +517,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1052.317866998799</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>506.9433569199987</v>
+        <v>290.0628494009472</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -529,19 +529,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>13056.81159678524</v>
+        <v>29049.07128553879</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712662023</v>
+        <v>8095.92571266193</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>19983.62688324001</v>
+        <v>14940.21181152952</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -550,16 +550,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>18308.144584818</v>
+        <v>50998.86069102</v>
       </c>
       <c r="M2" t="n">
-        <v>6217.591780158</v>
+        <v>11228.70813999</v>
       </c>
       <c r="N2" t="n">
-        <v>5912.579741208473</v>
+        <v>7234.066823234584</v>
       </c>
       <c r="O2" t="n">
-        <v>3616.87998725468</v>
+        <v>6709.085762003203</v>
       </c>
     </row>
   </sheetData>
@@ -660,10 +660,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5696.618793856453</v>
+        <v>219.6191807040655</v>
       </c>
       <c r="B2" t="n">
-        <v>506.9433569199987</v>
+        <v>3803.73674200606</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -672,19 +672,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>41673.37974517615</v>
+        <v>45497.54863566629</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712662023</v>
+        <v>8095.92571266193</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>34182.77902366784</v>
+        <v>31289.72026470282</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -693,16 +693,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>95083.3783733345</v>
+        <v>60054.94214326091</v>
       </c>
       <c r="M2" t="n">
-        <v>25113.26834048615</v>
+        <v>17372.009741075</v>
       </c>
       <c r="N2" t="n">
-        <v>18601.89536219744</v>
+        <v>9195.862605783142</v>
       </c>
       <c r="O2" t="n">
-        <v>9187.854541661638</v>
+        <v>7881.258210869395</v>
       </c>
     </row>
   </sheetData>
@@ -803,10 +803,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>11140.17657531062</v>
+        <v>2152.642195393625</v>
       </c>
       <c r="B2" t="n">
-        <v>506.9433569199987</v>
+        <v>5758.176568655313</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -815,19 +815,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100920.4659161198</v>
+        <v>57498.34502187894</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712662023</v>
+        <v>8095.92571266193</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>94270.28649863462</v>
+        <v>48286.53531869316</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -836,16 +836,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>155603.9212427722</v>
+        <v>60054.94214326091</v>
       </c>
       <c r="M2" t="n">
-        <v>62826.31725080314</v>
+        <v>23340.7500113645</v>
       </c>
       <c r="N2" t="n">
-        <v>28740.58201293752</v>
+        <v>13671.28338866544</v>
       </c>
       <c r="O2" t="n">
-        <v>26241.26914002771</v>
+        <v>13096.10328573595</v>
       </c>
     </row>
   </sheetData>
@@ -946,10 +946,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>11140.17657531062</v>
+        <v>2152.642195393625</v>
       </c>
       <c r="B2" t="n">
-        <v>506.9433569199987</v>
+        <v>5758.176568655313</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -958,19 +958,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100920.4659161198</v>
+        <v>57498.34502187894</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712662023</v>
+        <v>8095.92571266193</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>94270.28649863462</v>
+        <v>48286.53531869316</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -979,16 +979,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>155603.9212427722</v>
+        <v>60054.94214326091</v>
       </c>
       <c r="M2" t="n">
-        <v>62826.31725080314</v>
+        <v>23340.7500113645</v>
       </c>
       <c r="N2" t="n">
-        <v>28740.58201293752</v>
+        <v>13671.28338866544</v>
       </c>
       <c r="O2" t="n">
-        <v>26241.26914002771</v>
+        <v>13096.10328573595</v>
       </c>
     </row>
   </sheetData>
@@ -1089,10 +1089,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>11140.17657531062</v>
+        <v>2152.642195393625</v>
       </c>
       <c r="B2" t="n">
-        <v>506.9433569199987</v>
+        <v>5758.176568655313</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1101,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100920.4659161198</v>
+        <v>57498.34502187894</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712662023</v>
+        <v>8095.92571266193</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>94270.28649863462</v>
+        <v>48286.53531869316</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1122,16 +1122,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>155603.9212427722</v>
+        <v>60054.94214326091</v>
       </c>
       <c r="M2" t="n">
-        <v>62826.31725080314</v>
+        <v>23340.7500113645</v>
       </c>
       <c r="N2" t="n">
-        <v>28740.58201293752</v>
+        <v>13671.28338866544</v>
       </c>
       <c r="O2" t="n">
-        <v>26241.26914002771</v>
+        <v>13096.10328573595</v>
       </c>
     </row>
   </sheetData>
@@ -1232,10 +1232,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>11140.17657531062</v>
+        <v>2152.642195393625</v>
       </c>
       <c r="B2" t="n">
-        <v>506.9433569199987</v>
+        <v>5758.176568655313</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1244,19 +1244,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100920.4659161198</v>
+        <v>57498.34502187894</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712662023</v>
+        <v>8095.92571266193</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>94270.28649863462</v>
+        <v>48286.53531869316</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1265,16 +1265,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>155603.9212427722</v>
+        <v>60054.94214326091</v>
       </c>
       <c r="M2" t="n">
-        <v>62826.31725080314</v>
+        <v>23340.7500113645</v>
       </c>
       <c r="N2" t="n">
-        <v>28740.58201293752</v>
+        <v>13671.28338866544</v>
       </c>
       <c r="O2" t="n">
-        <v>26241.26914002771</v>
+        <v>13096.10328573595</v>
       </c>
     </row>
   </sheetData>

--- a/results/[4_flexible_energy_market]_#_fix_cost.xlsx
+++ b/results/[4_flexible_energy_market]_#_fix_cost.xlsx
@@ -520,7 +520,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>290.0628494009472</v>
+        <v>277.8902526399997</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -529,19 +529,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>29049.07128553879</v>
+        <v>29092.72506141524</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.92571266193</v>
+        <v>8095.925712664175</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>14940.21181152952</v>
+        <v>14865.25872276</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -550,16 +550,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>50998.86069102</v>
+        <v>50912.59821312752</v>
       </c>
       <c r="M2" t="n">
-        <v>11228.70813999</v>
+        <v>11247.09127927</v>
       </c>
       <c r="N2" t="n">
-        <v>7234.066823234584</v>
+        <v>7270.40043739626</v>
       </c>
       <c r="O2" t="n">
-        <v>6709.085762003203</v>
+        <v>6890.515476413165</v>
       </c>
     </row>
   </sheetData>
@@ -660,10 +660,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>219.6191807040655</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3803.73674200606</v>
+        <v>5522.228665637358</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -672,19 +672,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>45497.54863566629</v>
+        <v>56033.89983931746</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.92571266193</v>
+        <v>8095.925712664175</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>31289.72026470282</v>
+        <v>37494.07304221769</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -693,16 +693,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>60054.94214326091</v>
+        <v>72580.41557995854</v>
       </c>
       <c r="M2" t="n">
-        <v>17372.009741075</v>
+        <v>21817.92954626511</v>
       </c>
       <c r="N2" t="n">
-        <v>9195.862605783142</v>
+        <v>10913.45045002708</v>
       </c>
       <c r="O2" t="n">
-        <v>7881.258210869395</v>
+        <v>9426.543084076415</v>
       </c>
     </row>
   </sheetData>
@@ -803,10 +803,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2152.642195393625</v>
+        <v>2266.487971660625</v>
       </c>
       <c r="B2" t="n">
-        <v>5758.176568655313</v>
+        <v>7059.768887134273</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -815,19 +815,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>57498.34502187894</v>
+        <v>67081.11907838765</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.92571266193</v>
+        <v>8095.925712664175</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>48286.53531869316</v>
+        <v>53779.76068266826</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -836,16 +836,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>60054.94214326091</v>
+        <v>72580.41557995854</v>
       </c>
       <c r="M2" t="n">
-        <v>23340.7500113645</v>
+        <v>27679.17349794621</v>
       </c>
       <c r="N2" t="n">
-        <v>13671.28338866544</v>
+        <v>15939.31470367384</v>
       </c>
       <c r="O2" t="n">
-        <v>13096.10328573595</v>
+        <v>15294.37937820872</v>
       </c>
     </row>
   </sheetData>
@@ -946,10 +946,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2152.642195393625</v>
+        <v>2266.487971660625</v>
       </c>
       <c r="B2" t="n">
-        <v>5758.176568655313</v>
+        <v>7059.768887134273</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -958,19 +958,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>57498.34502187894</v>
+        <v>67081.11907838765</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.92571266193</v>
+        <v>8095.925712664175</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>48286.53531869316</v>
+        <v>53779.76068266826</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -979,16 +979,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>60054.94214326091</v>
+        <v>72580.41557995854</v>
       </c>
       <c r="M2" t="n">
-        <v>23340.7500113645</v>
+        <v>27679.17349794621</v>
       </c>
       <c r="N2" t="n">
-        <v>13671.28338866544</v>
+        <v>15939.31470367384</v>
       </c>
       <c r="O2" t="n">
-        <v>13096.10328573595</v>
+        <v>15294.37937820872</v>
       </c>
     </row>
   </sheetData>
@@ -1089,10 +1089,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2152.642195393625</v>
+        <v>2266.487971660625</v>
       </c>
       <c r="B2" t="n">
-        <v>5758.176568655313</v>
+        <v>7059.768887134273</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1101,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>57498.34502187894</v>
+        <v>67081.11907838765</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.92571266193</v>
+        <v>8095.925712664175</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>48286.53531869316</v>
+        <v>53779.76068266826</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1122,16 +1122,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>60054.94214326091</v>
+        <v>72580.41557995854</v>
       </c>
       <c r="M2" t="n">
-        <v>23340.7500113645</v>
+        <v>27679.17349794621</v>
       </c>
       <c r="N2" t="n">
-        <v>13671.28338866544</v>
+        <v>15939.31470367384</v>
       </c>
       <c r="O2" t="n">
-        <v>13096.10328573595</v>
+        <v>15294.37937820872</v>
       </c>
     </row>
   </sheetData>
@@ -1232,10 +1232,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2152.642195393625</v>
+        <v>2266.487971660625</v>
       </c>
       <c r="B2" t="n">
-        <v>5758.176568655313</v>
+        <v>7059.768887134273</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1244,19 +1244,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>57498.34502187894</v>
+        <v>67081.11907838765</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.92571266193</v>
+        <v>8095.925712664175</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>48286.53531869316</v>
+        <v>53779.76068266826</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1265,16 +1265,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>60054.94214326091</v>
+        <v>72580.41557995854</v>
       </c>
       <c r="M2" t="n">
-        <v>23340.7500113645</v>
+        <v>27679.17349794621</v>
       </c>
       <c r="N2" t="n">
-        <v>13671.28338866544</v>
+        <v>15939.31470367384</v>
       </c>
       <c r="O2" t="n">
-        <v>13096.10328573595</v>
+        <v>15294.37937820872</v>
       </c>
     </row>
   </sheetData>

--- a/results/[4_flexible_energy_market]_#_fix_cost.xlsx
+++ b/results/[4_flexible_energy_market]_#_fix_cost.xlsx
@@ -520,7 +520,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1037.265132737054</v>
+        <v>973.9537847600009</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -529,7 +529,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>28926.05393052954</v>
+        <v>28982.37596598056</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -541,7 +541,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>16171.06685703679</v>
+        <v>16175.28135478</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -550,16 +550,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>48492.22142001599</v>
+        <v>48524.529503538</v>
       </c>
       <c r="M2" t="n">
-        <v>10595.37713982</v>
+        <v>10590.587968015</v>
       </c>
       <c r="N2" t="n">
-        <v>7071.746316472206</v>
+        <v>7155.076800480893</v>
       </c>
       <c r="O2" t="n">
-        <v>6993.891045176661</v>
+        <v>6980.32583738884</v>
       </c>
     </row>
   </sheetData>
@@ -663,7 +663,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>4157.588990853394</v>
+        <v>5712.560177842886</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -672,7 +672,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>45991.90904307188</v>
+        <v>56106.05588781912</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -684,7 +684,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>37079.12819938764</v>
+        <v>44217.8984721661</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -693,16 +693,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>54844.03303316472</v>
+        <v>66966.57749858923</v>
       </c>
       <c r="M2" t="n">
-        <v>17449.04999683176</v>
+        <v>21984.28023276101</v>
       </c>
       <c r="N2" t="n">
-        <v>9024.73482637065</v>
+        <v>10592.74868329119</v>
       </c>
       <c r="O2" t="n">
-        <v>9724.259001609127</v>
+        <v>12062.16737379073</v>
       </c>
     </row>
   </sheetData>
@@ -803,10 +803,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2754.31755456332</v>
+        <v>2861.961401238371</v>
       </c>
       <c r="B2" t="n">
-        <v>6368.910634126893</v>
+        <v>8026.889663087295</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>57457.45307013817</v>
+        <v>67297.73995507321</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>52465.73681402855</v>
+        <v>59256.42575923612</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -836,16 +836,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>54844.03303316472</v>
+        <v>66966.57749858923</v>
       </c>
       <c r="M2" t="n">
-        <v>21912.87293902603</v>
+        <v>25464.6214365565</v>
       </c>
       <c r="N2" t="n">
-        <v>13034.31228651121</v>
+        <v>15130.68977466451</v>
       </c>
       <c r="O2" t="n">
-        <v>12860.17252493772</v>
+        <v>14760.15955445609</v>
       </c>
     </row>
   </sheetData>
@@ -946,10 +946,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2754.31755456332</v>
+        <v>2861.961401238371</v>
       </c>
       <c r="B2" t="n">
-        <v>6368.910634126893</v>
+        <v>8026.889663087295</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>57457.45307013817</v>
+        <v>67297.73995507321</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -970,7 +970,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>52465.73681402855</v>
+        <v>59256.42575923612</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -979,16 +979,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>54844.03303316472</v>
+        <v>66966.57749858923</v>
       </c>
       <c r="M2" t="n">
-        <v>21912.87293902603</v>
+        <v>25464.6214365565</v>
       </c>
       <c r="N2" t="n">
-        <v>13151.87171037628</v>
+        <v>15235.09851993559</v>
       </c>
       <c r="O2" t="n">
-        <v>12860.17252493772</v>
+        <v>14760.15955445609</v>
       </c>
     </row>
   </sheetData>
@@ -1089,10 +1089,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5713.151062849596</v>
+        <v>6302.873118834019</v>
       </c>
       <c r="B2" t="n">
-        <v>6368.910634126893</v>
+        <v>8026.889663087295</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>57457.45307013817</v>
+        <v>67297.73995507321</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>52465.73681402855</v>
+        <v>59256.42575923612</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1122,16 +1122,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>54844.03303316472</v>
+        <v>66966.57749858923</v>
       </c>
       <c r="M2" t="n">
-        <v>21912.87293902603</v>
+        <v>25464.6214365565</v>
       </c>
       <c r="N2" t="n">
-        <v>13601.0893110962</v>
+        <v>15770.60999844154</v>
       </c>
       <c r="O2" t="n">
-        <v>14937.13200870449</v>
+        <v>17095.62619223827</v>
       </c>
     </row>
   </sheetData>
@@ -1232,10 +1232,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5713.151062849596</v>
+        <v>6302.873118834019</v>
       </c>
       <c r="B2" t="n">
-        <v>6368.910634126893</v>
+        <v>8026.889663087295</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>57457.45307013817</v>
+        <v>67297.73995507321</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>52465.73681402855</v>
+        <v>59256.42575923612</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1265,16 +1265,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>54844.03303316472</v>
+        <v>66966.57749858923</v>
       </c>
       <c r="M2" t="n">
-        <v>21912.87293902603</v>
+        <v>25464.6214365565</v>
       </c>
       <c r="N2" t="n">
-        <v>13601.0893110962</v>
+        <v>15770.60999844154</v>
       </c>
       <c r="O2" t="n">
-        <v>14937.13200870449</v>
+        <v>17095.62619223827</v>
       </c>
     </row>
   </sheetData>

--- a/results/[4_flexible_energy_market]_#_fix_cost.xlsx
+++ b/results/[4_flexible_energy_market]_#_fix_cost.xlsx
@@ -446,67 +446,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -517,31 +517,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1052.317866998799</v>
+        <v>3903.181680257922</v>
       </c>
       <c r="B2" t="n">
-        <v>506.9433569199987</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>48024.68820317771</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>13056.81159678524</v>
+        <v>289724.0114301849</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>9578.721511094005</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712662023</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2534.277928792126</v>
       </c>
       <c r="I2" t="n">
-        <v>19983.62688324001</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -550,16 +550,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>18308.144584818</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>6217.591780158</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>5912.579741208473</v>
+        <v>2483.088451418243</v>
       </c>
       <c r="O2" t="n">
-        <v>3616.87998725468</v>
+        <v>1995.762462679781</v>
       </c>
     </row>
   </sheetData>
@@ -589,67 +589,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -660,31 +660,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5696.618793856453</v>
+        <v>7750.60443450132</v>
       </c>
       <c r="B2" t="n">
-        <v>506.9433569199987</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>192998.6748030985</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>41673.37974517615</v>
+        <v>289724.0114301849</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>16456.88206482895</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712662023</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>7410.946080941625</v>
       </c>
       <c r="I2" t="n">
-        <v>34182.77902366784</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -693,16 +693,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>95083.3783733345</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>25113.26834048615</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>18601.89536219744</v>
+        <v>8657.602454900793</v>
       </c>
       <c r="O2" t="n">
-        <v>9187.854541661638</v>
+        <v>5738.328092052152</v>
       </c>
     </row>
   </sheetData>
@@ -732,67 +732,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -803,31 +803,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>11140.17657531062</v>
+        <v>27024.51331006405</v>
       </c>
       <c r="B2" t="n">
-        <v>506.9433569199987</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>292299.7571186299</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100920.4659161198</v>
+        <v>289724.0114301849</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>17293.09788020957</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712662023</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>11593.76417664658</v>
       </c>
       <c r="I2" t="n">
-        <v>94270.28649863462</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -836,16 +836,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>155603.9212427722</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>62826.31725080314</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>28740.58201293752</v>
+        <v>13965.19781312715</v>
       </c>
       <c r="O2" t="n">
-        <v>26241.26914002771</v>
+        <v>9655.305390073294</v>
       </c>
     </row>
   </sheetData>
@@ -875,67 +875,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -946,31 +946,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>11140.17657531062</v>
+        <v>27024.51331006405</v>
       </c>
       <c r="B2" t="n">
-        <v>506.9433569199987</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>292299.7571186299</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100920.4659161198</v>
+        <v>289724.0114301849</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>17293.09788020957</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712662023</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>11593.76417664658</v>
       </c>
       <c r="I2" t="n">
-        <v>94270.28649863462</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -979,16 +979,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>155603.9212427722</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>62826.31725080314</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>28740.58201293752</v>
+        <v>13965.19781312715</v>
       </c>
       <c r="O2" t="n">
-        <v>26241.26914002771</v>
+        <v>9655.305390073294</v>
       </c>
     </row>
   </sheetData>
@@ -1018,67 +1018,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -1089,31 +1089,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>11140.17657531062</v>
+        <v>27024.51331006405</v>
       </c>
       <c r="B2" t="n">
-        <v>506.9433569199987</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>292299.7571186299</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100920.4659161198</v>
+        <v>289724.0114301849</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>17293.09788020957</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712662023</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>11593.76417664658</v>
       </c>
       <c r="I2" t="n">
-        <v>94270.28649863462</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1122,16 +1122,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>155603.9212427722</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>62826.31725080314</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>28740.58201293752</v>
+        <v>13965.19781312715</v>
       </c>
       <c r="O2" t="n">
-        <v>26241.26914002771</v>
+        <v>9655.305390073294</v>
       </c>
     </row>
   </sheetData>
@@ -1161,67 +1161,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -1232,31 +1232,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>11140.17657531062</v>
+        <v>27024.51331006405</v>
       </c>
       <c r="B2" t="n">
-        <v>506.9433569199987</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>292299.7571186299</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100920.4659161198</v>
+        <v>289724.0114301849</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>17293.09788020957</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712662023</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>11593.76417664658</v>
       </c>
       <c r="I2" t="n">
-        <v>94270.28649863462</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1265,16 +1265,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>155603.9212427722</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>62826.31725080314</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>28740.58201293752</v>
+        <v>13965.19781312715</v>
       </c>
       <c r="O2" t="n">
-        <v>26241.26914002771</v>
+        <v>9655.305390073294</v>
       </c>
     </row>
   </sheetData>

--- a/results/[4_flexible_energy_market]_#_fix_cost.xlsx
+++ b/results/[4_flexible_energy_market]_#_fix_cost.xlsx
@@ -446,67 +446,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -517,31 +517,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>3906.399109145206</v>
       </c>
       <c r="B2" t="n">
-        <v>60.42677088866849</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>48353.76274462014</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>154.0945373674233</v>
+        <v>289724.0114301849</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>9433.134471502228</v>
       </c>
       <c r="G2" t="n">
-        <v>80.95925712661834</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2534.277928792104</v>
       </c>
       <c r="I2" t="n">
-        <v>345.7108634304001</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -556,10 +556,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>56.37345936666455</v>
+        <v>2367.37219622158</v>
       </c>
       <c r="O2" t="n">
-        <v>82.08937871506363</v>
+        <v>1995.762462679798</v>
       </c>
     </row>
   </sheetData>
@@ -589,67 +589,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -660,31 +660,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>45.29648671790184</v>
+        <v>6991.052031681918</v>
       </c>
       <c r="B2" t="n">
-        <v>161.2918256162735</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>197913.7502057619</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>583.7465662421289</v>
+        <v>289724.0114301849</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>16452.51445364119</v>
       </c>
       <c r="G2" t="n">
-        <v>80.95925712661834</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>8194.52068131253</v>
       </c>
       <c r="I2" t="n">
-        <v>990.0506958757196</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -699,10 +699,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>151.5842097108635</v>
+        <v>7543.193583625169</v>
       </c>
       <c r="O2" t="n">
-        <v>163.1662854369969</v>
+        <v>6257.586732772244</v>
       </c>
     </row>
   </sheetData>
@@ -732,67 +732,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -803,31 +803,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>104.3004757602837</v>
+        <v>31236.29455387744</v>
       </c>
       <c r="B2" t="n">
-        <v>317.4932866985711</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>292247.2772138842</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>1229.937116414458</v>
+        <v>289724.0114301849</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>16595.10705160327</v>
       </c>
       <c r="G2" t="n">
-        <v>80.95925712661834</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>12131.91920790125</v>
       </c>
       <c r="I2" t="n">
-        <v>1945.578676866415</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -842,10 +842,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>333.1202149549441</v>
+        <v>12888.04225687751</v>
       </c>
       <c r="O2" t="n">
-        <v>299.6526024711953</v>
+        <v>9263.466444480218</v>
       </c>
     </row>
   </sheetData>
@@ -875,67 +875,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -946,31 +946,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>104.3004757602837</v>
+        <v>31236.29455387744</v>
       </c>
       <c r="B2" t="n">
-        <v>317.4932866985711</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>292247.2772138842</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>1229.937116414458</v>
+        <v>289724.0114301849</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>16595.10705160327</v>
       </c>
       <c r="G2" t="n">
-        <v>80.95925712661834</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>12131.91920790125</v>
       </c>
       <c r="I2" t="n">
-        <v>1945.578676866415</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -985,10 +985,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>333.1202149549441</v>
+        <v>14045.89200932069</v>
       </c>
       <c r="O2" t="n">
-        <v>309.0789362503767</v>
+        <v>9263.466444480218</v>
       </c>
     </row>
   </sheetData>
@@ -1018,67 +1018,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -1089,31 +1089,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>130.1664139747333</v>
+        <v>38906.8534480406</v>
       </c>
       <c r="B2" t="n">
-        <v>317.4932866985711</v>
+        <v>193.0947398408091</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>292247.2772138842</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>1229.937116414458</v>
+        <v>289724.0114301849</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>16595.10705160327</v>
       </c>
       <c r="G2" t="n">
-        <v>80.95925712661834</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>12131.91920790125</v>
       </c>
       <c r="I2" t="n">
-        <v>1945.578676866415</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1128,10 +1128,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>333.1202149549441</v>
+        <v>16879.89729726143</v>
       </c>
       <c r="O2" t="n">
-        <v>317.0118772417032</v>
+        <v>10096.02314047837</v>
       </c>
     </row>
   </sheetData>
@@ -1161,67 +1161,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -1232,31 +1232,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>130.1664139747333</v>
+        <v>38906.8534480406</v>
       </c>
       <c r="B2" t="n">
-        <v>317.4932866985711</v>
+        <v>193.0947398408091</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>292247.2772138842</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>1229.937116414458</v>
+        <v>289724.0114301849</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>16595.10705160327</v>
       </c>
       <c r="G2" t="n">
-        <v>80.95925712661834</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>12131.91920790125</v>
       </c>
       <c r="I2" t="n">
-        <v>1945.578676866415</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1271,10 +1271,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>333.1202149549441</v>
+        <v>16879.89729726143</v>
       </c>
       <c r="O2" t="n">
-        <v>317.0118772417032</v>
+        <v>10096.02314047837</v>
       </c>
     </row>
   </sheetData>

--- a/results/[4_flexible_energy_market]_#_fix_cost.xlsx
+++ b/results/[4_flexible_energy_market]_#_fix_cost.xlsx
@@ -556,10 +556,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>2483.088451418243</v>
+        <v>2483.088451418225</v>
       </c>
       <c r="O2" t="n">
-        <v>1995.762462679781</v>
+        <v>1995.76246267978</v>
       </c>
     </row>
   </sheetData>
@@ -681,7 +681,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>7410.946080941625</v>
+        <v>7410.946080941624</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -699,10 +699,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>8657.602454900793</v>
+        <v>8657.60245490108</v>
       </c>
       <c r="O2" t="n">
-        <v>5738.328092052152</v>
+        <v>5738.32809205215</v>
       </c>
     </row>
   </sheetData>
@@ -803,13 +803,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>27024.51331006405</v>
+        <v>27024.51331005454</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>292299.7571186299</v>
+        <v>292299.7571186319</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -818,13 +818,13 @@
         <v>289724.0114301849</v>
       </c>
       <c r="F2" t="n">
-        <v>17293.09788020957</v>
+        <v>17293.09788022115</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>11593.76417664658</v>
+        <v>11593.76417664664</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -842,10 +842,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>13965.19781312715</v>
+        <v>13965.19781313027</v>
       </c>
       <c r="O2" t="n">
-        <v>9655.305390073294</v>
+        <v>9655.305390073227</v>
       </c>
     </row>
   </sheetData>
@@ -946,13 +946,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>27024.51331006405</v>
+        <v>27024.51331005454</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>292299.7571186299</v>
+        <v>292299.7571186319</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -961,13 +961,13 @@
         <v>289724.0114301849</v>
       </c>
       <c r="F2" t="n">
-        <v>17293.09788020957</v>
+        <v>17293.09788022115</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>11593.76417664658</v>
+        <v>11593.76417664664</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -985,10 +985,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>13965.19781312715</v>
+        <v>13965.19781313027</v>
       </c>
       <c r="O2" t="n">
-        <v>9655.305390073294</v>
+        <v>9655.305390073227</v>
       </c>
     </row>
   </sheetData>
@@ -1089,13 +1089,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>27024.51331006405</v>
+        <v>27024.51331005454</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>292299.7571186299</v>
+        <v>292299.7571186319</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -1104,13 +1104,13 @@
         <v>289724.0114301849</v>
       </c>
       <c r="F2" t="n">
-        <v>17293.09788020957</v>
+        <v>17293.09788022115</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>11593.76417664658</v>
+        <v>11593.76417664664</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -1128,10 +1128,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>13965.19781312715</v>
+        <v>13965.19781313027</v>
       </c>
       <c r="O2" t="n">
-        <v>9655.305390073294</v>
+        <v>9655.305390073227</v>
       </c>
     </row>
   </sheetData>
@@ -1232,13 +1232,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>27024.51331006405</v>
+        <v>27024.51331005454</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>292299.7571186299</v>
+        <v>292299.7571186319</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -1247,13 +1247,13 @@
         <v>289724.0114301849</v>
       </c>
       <c r="F2" t="n">
-        <v>17293.09788020957</v>
+        <v>17293.09788022115</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>11593.76417664658</v>
+        <v>11593.76417664664</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -1271,10 +1271,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>13965.19781312715</v>
+        <v>13965.19781313027</v>
       </c>
       <c r="O2" t="n">
-        <v>9655.305390073294</v>
+        <v>9655.305390073227</v>
       </c>
     </row>
   </sheetData>

--- a/results/[4_flexible_energy_market]_#_fix_cost.xlsx
+++ b/results/[4_flexible_energy_market]_#_fix_cost.xlsx
@@ -535,7 +535,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712664175</v>
+        <v>8095.925712661834</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -556,7 +556,7 @@
         <v>11247.09127927</v>
       </c>
       <c r="N2" t="n">
-        <v>7270.40043739626</v>
+        <v>7270.400437397082</v>
       </c>
       <c r="O2" t="n">
         <v>6890.515476413165</v>
@@ -663,7 +663,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>5522.228665637358</v>
+        <v>5522.228665642542</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -672,19 +672,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>56033.89983931746</v>
+        <v>56033.89983931268</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712664175</v>
+        <v>8095.925712661834</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>37494.07304221769</v>
+        <v>37494.07304221723</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -693,16 +693,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>72580.41557995854</v>
+        <v>72580.41557995952</v>
       </c>
       <c r="M2" t="n">
-        <v>21817.92954626511</v>
+        <v>21817.92954626503</v>
       </c>
       <c r="N2" t="n">
-        <v>10913.45045002708</v>
+        <v>10913.45045002785</v>
       </c>
       <c r="O2" t="n">
-        <v>9426.543084076415</v>
+        <v>9426.543084076389</v>
       </c>
     </row>
   </sheetData>
@@ -803,10 +803,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2266.487971660625</v>
+        <v>2266.487971660741</v>
       </c>
       <c r="B2" t="n">
-        <v>7059.768887134273</v>
+        <v>7059.768887134545</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -815,19 +815,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>67081.11907838765</v>
+        <v>67081.11907838771</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712664175</v>
+        <v>8095.925712661834</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>53779.76068266826</v>
+        <v>53779.76068266822</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -836,16 +836,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>72580.41557995854</v>
+        <v>72580.41557995952</v>
       </c>
       <c r="M2" t="n">
         <v>27679.17349794621</v>
       </c>
       <c r="N2" t="n">
-        <v>15939.31470367384</v>
+        <v>15939.31470367442</v>
       </c>
       <c r="O2" t="n">
-        <v>15294.37937820872</v>
+        <v>15294.37937820839</v>
       </c>
     </row>
   </sheetData>
@@ -946,10 +946,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2266.487971660625</v>
+        <v>2266.487971660741</v>
       </c>
       <c r="B2" t="n">
-        <v>7059.768887134273</v>
+        <v>7059.768887134545</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -958,19 +958,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>67081.11907838765</v>
+        <v>67081.11907838771</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712664175</v>
+        <v>8095.925712661834</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>53779.76068266826</v>
+        <v>53779.76068266822</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -979,16 +979,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>72580.41557995854</v>
+        <v>72580.41557995952</v>
       </c>
       <c r="M2" t="n">
         <v>27679.17349794621</v>
       </c>
       <c r="N2" t="n">
-        <v>15939.31470367384</v>
+        <v>15939.31470367442</v>
       </c>
       <c r="O2" t="n">
-        <v>15294.37937820872</v>
+        <v>15294.37937820839</v>
       </c>
     </row>
   </sheetData>
@@ -1089,10 +1089,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2266.487971660625</v>
+        <v>2266.487971660741</v>
       </c>
       <c r="B2" t="n">
-        <v>7059.768887134273</v>
+        <v>7059.768887134545</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1101,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>67081.11907838765</v>
+        <v>67081.11907838771</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712664175</v>
+        <v>8095.925712661834</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>53779.76068266826</v>
+        <v>53779.76068266822</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1122,16 +1122,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>72580.41557995854</v>
+        <v>72580.41557995952</v>
       </c>
       <c r="M2" t="n">
         <v>27679.17349794621</v>
       </c>
       <c r="N2" t="n">
-        <v>15939.31470367384</v>
+        <v>15939.31470367442</v>
       </c>
       <c r="O2" t="n">
-        <v>15294.37937820872</v>
+        <v>15294.37937820839</v>
       </c>
     </row>
   </sheetData>
@@ -1232,10 +1232,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2266.487971660625</v>
+        <v>2266.487971660741</v>
       </c>
       <c r="B2" t="n">
-        <v>7059.768887134273</v>
+        <v>7059.768887134545</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1244,19 +1244,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>67081.11907838765</v>
+        <v>67081.11907838771</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712664175</v>
+        <v>8095.925712661834</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>53779.76068266826</v>
+        <v>53779.76068266822</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1265,16 +1265,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>72580.41557995854</v>
+        <v>72580.41557995952</v>
       </c>
       <c r="M2" t="n">
         <v>27679.17349794621</v>
       </c>
       <c r="N2" t="n">
-        <v>15939.31470367384</v>
+        <v>15939.31470367442</v>
       </c>
       <c r="O2" t="n">
-        <v>15294.37937820872</v>
+        <v>15294.37937820839</v>
       </c>
     </row>
   </sheetData>

--- a/results/[4_flexible_energy_market]_#_fix_cost.xlsx
+++ b/results/[4_flexible_energy_market]_#_fix_cost.xlsx
@@ -556,10 +556,10 @@
         <v>10590.587968015</v>
       </c>
       <c r="N2" t="n">
-        <v>7155.076800480893</v>
+        <v>7155.07680048089</v>
       </c>
       <c r="O2" t="n">
-        <v>6980.32583738884</v>
+        <v>6980.325837388836</v>
       </c>
     </row>
   </sheetData>
@@ -663,7 +663,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>5712.560177842886</v>
+        <v>5707.815717280662</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -684,7 +684,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>44217.8984721661</v>
+        <v>44492.05901988943</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -693,16 +693,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>66966.57749858923</v>
+        <v>66334.06707325629</v>
       </c>
       <c r="M2" t="n">
-        <v>21984.28023276101</v>
+        <v>21991.42050229464</v>
       </c>
       <c r="N2" t="n">
         <v>10592.74868329119</v>
       </c>
       <c r="O2" t="n">
-        <v>12062.16737379073</v>
+        <v>12079.4099131153</v>
       </c>
     </row>
   </sheetData>
@@ -803,10 +803,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2861.961401238371</v>
+        <v>2927.360317916481</v>
       </c>
       <c r="B2" t="n">
-        <v>8026.889663087295</v>
+        <v>7940.887964949257</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>67297.73995507321</v>
+        <v>67179.99183625776</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>59256.42575923612</v>
+        <v>59530.75343380851</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -836,16 +836,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>66966.57749858923</v>
+        <v>66334.06707325629</v>
       </c>
       <c r="M2" t="n">
-        <v>25464.6214365565</v>
+        <v>25547.11936466757</v>
       </c>
       <c r="N2" t="n">
-        <v>15130.68977466451</v>
+        <v>15117.91314604427</v>
       </c>
       <c r="O2" t="n">
-        <v>14760.15955445609</v>
+        <v>14761.05508568936</v>
       </c>
     </row>
   </sheetData>
@@ -946,10 +946,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2861.961401238371</v>
+        <v>2927.360317916481</v>
       </c>
       <c r="B2" t="n">
-        <v>8026.889663087295</v>
+        <v>7940.887964949257</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>67297.73995507321</v>
+        <v>67179.99183625776</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -970,7 +970,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>59256.42575923612</v>
+        <v>59530.75343380851</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -979,16 +979,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>66966.57749858923</v>
+        <v>66334.06707325629</v>
       </c>
       <c r="M2" t="n">
-        <v>25464.6214365565</v>
+        <v>25547.11936466757</v>
       </c>
       <c r="N2" t="n">
-        <v>15235.09851993559</v>
+        <v>15225.03710440102</v>
       </c>
       <c r="O2" t="n">
-        <v>14760.15955445609</v>
+        <v>14761.05508568936</v>
       </c>
     </row>
   </sheetData>
@@ -1089,10 +1089,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6302.873118834019</v>
+        <v>6352.985609279765</v>
       </c>
       <c r="B2" t="n">
-        <v>8026.889663087295</v>
+        <v>7940.887964949257</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>67297.73995507321</v>
+        <v>67179.99183625776</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>59256.42575923612</v>
+        <v>59530.75343380851</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1122,16 +1122,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>66966.57749858923</v>
+        <v>66334.06707325629</v>
       </c>
       <c r="M2" t="n">
-        <v>25464.6214365565</v>
+        <v>25547.11936466757</v>
       </c>
       <c r="N2" t="n">
-        <v>15770.60999844154</v>
+        <v>15769.76495484199</v>
       </c>
       <c r="O2" t="n">
-        <v>17095.62619223827</v>
+        <v>17096.52172347162</v>
       </c>
     </row>
   </sheetData>
@@ -1232,10 +1232,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6302.873118834019</v>
+        <v>6352.985609279765</v>
       </c>
       <c r="B2" t="n">
-        <v>8026.889663087295</v>
+        <v>7940.887964949257</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>67297.73995507321</v>
+        <v>67179.99183625776</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>59256.42575923612</v>
+        <v>59530.75343380851</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1265,16 +1265,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>66966.57749858923</v>
+        <v>66334.06707325629</v>
       </c>
       <c r="M2" t="n">
-        <v>25464.6214365565</v>
+        <v>25547.11936466757</v>
       </c>
       <c r="N2" t="n">
-        <v>15770.60999844154</v>
+        <v>15769.76495484199</v>
       </c>
       <c r="O2" t="n">
-        <v>17095.62619223827</v>
+        <v>17096.52172347162</v>
       </c>
     </row>
   </sheetData>
